--- a/specs/DDH_compliant/RDL_DDH_0.2.xlsx
+++ b/specs/DDH_compliant/RDL_DDH_0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Dropbox\WB\RDL\schema\DDH_compliant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B5F61-52BB-4DE0-AD4E-EF98B22EAB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC590F6-43FD-4658-9C9C-D3D20A1E767F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15336" yWindow="0" windowWidth="25944" windowHeight="16680" activeTab="1" xr2:uid="{C8EFD89E-0948-4B97-B332-7328A25BE3FA}"/>
+    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{C8EFD89E-0948-4B97-B332-7328A25BE3FA}"/>
   </bookViews>
   <sheets>
     <sheet name="DDH_RDL" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="624">
   <si>
     <t>dataset</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>spatial_resolution</t>
-  </si>
-  <si>
-    <t>Rate of Exceedence, Probability of Exceedence, Return Period</t>
   </si>
   <si>
     <t>temporal_extent</t>
@@ -1119,9 +1116,6 @@
     <t>Exposure - EXP</t>
   </si>
   <si>
-    <t>Vulnerability - VLN</t>
-  </si>
-  <si>
     <t>Loss - LOS</t>
   </si>
   <si>
@@ -1920,6 +1914,65 @@
   <si>
     <t>Version 0.2
 DDH Compliant</t>
+  </si>
+  <si>
+    <t>Vulnerable population, Institutional Governance, Governance in Planning and Construction, Civil Society and Social Capital, Financial and Material welfare, Food Security, Preparedness and Local Risk Awareness, Access and Provision of services, Knowledge and education, Health</t>
+  </si>
+  <si>
+    <t>… (51 characteristics)</t>
+  </si>
+  <si>
+    <t>… (169 indicators)</t>
+  </si>
+  <si>
+    <t>vln_se_category</t>
+  </si>
+  <si>
+    <t>vln_se_characteristic</t>
+  </si>
+  <si>
+    <t>vln_se_Indicator</t>
+  </si>
+  <si>
+    <t>Vulnerability - VLN-PH</t>
+  </si>
+  <si>
+    <t>Vulnerability - VLN-SE</t>
+  </si>
+  <si>
+    <t>lol_disaster_id</t>
+  </si>
+  <si>
+    <t>hzd_disaster_id</t>
+  </si>
+  <si>
+    <t>GLIDE number (if inferred/observed event)</t>
+  </si>
+  <si>
+    <t>Susceptibility</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rate of Exceedence, Probability of Exceedence, Return Period, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Susceptibility</t>
+    </r>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>RP_range</t>
+  </si>
+  <si>
+    <t>If hzd_frequency_type = Return Period, specify range in years. E.g RP 10 to 1000 years.</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2222,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2200,14 +2253,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2220,17 +2267,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2309,6 +2351,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2697,15 +2764,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E011FCC-269A-41CC-A21A-EB5F3A301A24}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="60" customWidth="1"/>
     <col min="2" max="2" width="32.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.109375" customWidth="1"/>
     <col min="4" max="4" width="100.5546875" customWidth="1"/>
@@ -2713,621 +2780,781 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="60" t="s">
-        <v>609</v>
+      <c r="B1" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="53" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="47" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="54" t="s">
-        <v>17</v>
+      <c r="A7" s="61"/>
+      <c r="B7" s="47" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="55" t="s">
-        <v>352</v>
-      </c>
-      <c r="D11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E11" t="s">
-        <v>353</v>
-      </c>
-    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="55" t="s">
-        <v>303</v>
+      <c r="A12" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>302</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="47" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="61"/>
+      <c r="B15" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>277</v>
-      </c>
-    </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="54" t="s">
-        <v>15</v>
+      <c r="A17" s="61"/>
+      <c r="B17" s="47" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20" t="s">
-        <v>292</v>
+      <c r="A18" s="62"/>
+      <c r="B18" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="25" t="s">
-        <v>306</v>
+      <c r="A19" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="24" t="s">
-        <v>308</v>
+      <c r="A20" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>307</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="62"/>
+      <c r="B21" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>327</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="25" t="s">
-        <v>328</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="25" t="s">
-        <v>329</v>
+      <c r="A23" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>328</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="62"/>
+      <c r="B25" s="66" t="s">
+        <v>622</v>
+      </c>
+      <c r="D25" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="62"/>
+      <c r="B27" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="62"/>
+      <c r="B28" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="D28" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="63"/>
+      <c r="B29" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="63" t="s">
+        <v>621</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="63" t="s">
+        <v>621</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="63"/>
+      <c r="B32" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="63" t="s">
+        <v>621</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="63" t="s">
+        <v>621</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="64"/>
+      <c r="B35" s="43" t="s">
+        <v>614</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="26" t="s">
+      <c r="D37" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="64"/>
+      <c r="B42" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B47" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="52" t="s">
+      <c r="D47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="64"/>
+      <c r="B49" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="64"/>
+      <c r="B50" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="64"/>
+      <c r="B51" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D51" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="64"/>
+      <c r="B54" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="64"/>
+      <c r="B55" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="64"/>
+      <c r="B56" s="43" t="s">
+        <v>615</v>
+      </c>
+      <c r="C56" s="44"/>
+      <c r="D56" s="43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B57" s="58" t="s">
+        <v>611</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="D58" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="D59" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="65"/>
+      <c r="B60" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="52" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="36" t="s">
+      <c r="C60" s="42"/>
+      <c r="D60" s="42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B65" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="D28" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="36" t="s">
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="65"/>
+      <c r="B66" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="D29" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="27" t="s">
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B67" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="D30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="27" t="s">
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B68" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="D68" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="31" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B71" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="D43" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="D45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D74" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="D49" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="D50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="D52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
-      <c r="B53" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
-      <c r="B54" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
-      <c r="B55" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
-      <c r="B56" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="32"/>
-      <c r="B57" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="32"/>
-      <c r="B58" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="D58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="D59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
-      <c r="B60" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="D60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
-      <c r="B61" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="D61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
-      <c r="B62" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="D62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
-      <c r="B63" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="D63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
-      <c r="B64" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="D64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
-      <c r="B65" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="D65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="32"/>
-      <c r="B66" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="D66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
-      <c r="B67" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="D67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
-      <c r="B68" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="D68" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="32"/>
-      <c r="B69" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="D69" t="s">
-        <v>356</v>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="65"/>
+      <c r="B75" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="D75" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="65"/>
+      <c r="B76" s="30" t="s">
+        <v>616</v>
+      </c>
+      <c r="D76" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -3340,30 +3567,18 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="19">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{0810C0CA-B63F-468A-A655-2E2F90FBF2C8}">
           <x14:formula1>
             <xm:f>RDL_types!$F$8:$F$19</xm:f>
           </x14:formula1>
-          <xm:sqref>C19 C21 C34 C55</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{767DB4F4-1E57-41C1-BEEB-D5563AC13DF8}">
-          <x14:formula1>
-            <xm:f>RDL_types!$F$20:$F$46</xm:f>
-          </x14:formula1>
-          <xm:sqref>C20:C21 C35 C56</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{C2F2BA77-78E2-4385-834A-D282CD4C7A7E}">
-          <x14:formula1>
-            <xm:f>RDL_types!$F$47:$F$86</xm:f>
-          </x14:formula1>
-          <xm:sqref>C25 C37</xm:sqref>
+          <xm:sqref>C19 C21 C36 C61</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC73E95F-AC6C-4584-A51E-36037D85CFBF}">
           <x14:formula1>
             <xm:f>RDL_types!$B$7:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C38 C58</xm:sqref>
+          <xm:sqref>C40 C64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{C190C53D-D385-451B-BEB8-BCE7F134939E}">
           <x14:formula1>
@@ -3375,85 +3590,103 @@
           <x14:formula1>
             <xm:f>RDL_types!$B$32:$B$34</xm:f>
           </x14:formula1>
-          <xm:sqref>C47 C23 C65</xm:sqref>
+          <xm:sqref>C49 C23 C71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{B4F6413F-B44A-4E61-9412-C8EEC13C57EC}">
           <x14:formula1>
-            <xm:f>RDL_types!$B$40:$B$42</xm:f>
+            <xm:f>RDL_types!$B$41:$B$43</xm:f>
           </x14:formula1>
-          <xm:sqref>C43 C63</xm:sqref>
+          <xm:sqref>C45 C69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{13337190-336F-4061-8A93-A3922521B079}">
           <x14:formula1>
             <xm:f>RDL_types!$B$37:$B$39</xm:f>
           </x14:formula1>
-          <xm:sqref>C24 C36 C57</xm:sqref>
+          <xm:sqref>C63 C38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{7745FDDA-BBED-4F08-B35D-315C74BA841B}">
           <x14:formula1>
             <xm:f>RDL_types!$B$11:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>C29 C39 C59</xm:sqref>
+          <xm:sqref>C31 C41 C65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{967B0127-DFE7-4192-86F6-0486D7A81DFA}">
           <x14:formula1>
             <xm:f>RDL_types!$B$24:$B$27</xm:f>
           </x14:formula1>
-          <xm:sqref>C31 C41 C61:C62</xm:sqref>
+          <xm:sqref>C33 C43 C67:C68</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{248269C0-0FB8-4C69-AF60-C476598F14EE}">
           <x14:formula1>
             <xm:f>RDL_types!$B$6:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C28</xm:sqref>
+          <xm:sqref>C30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{012DDC32-839F-4F49-A923-E095289668E5}">
           <x14:formula1>
-            <xm:f>RDL_types!$B$57:$B$59</xm:f>
+            <xm:f>RDL_types!$B$58:$B$60</xm:f>
           </x14:formula1>
-          <xm:sqref>C45</xm:sqref>
+          <xm:sqref>C47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{3C201808-61FD-44F7-A12C-0B903BD5EDA4}">
           <x14:formula1>
-            <xm:f>RDL_types!$B$55:$B$56</xm:f>
+            <xm:f>RDL_types!$B$56:$B$57</xm:f>
           </x14:formula1>
-          <xm:sqref>C44 C64</xm:sqref>
+          <xm:sqref>C46 C70</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B6AE1EB-9AB6-41D9-84BC-6248451A16DD}">
           <x14:formula1>
-            <xm:f>RDL_types!$B$43:$B$46</xm:f>
+            <xm:f>RDL_types!$B$44:$B$47</xm:f>
           </x14:formula1>
-          <xm:sqref>C46 C68</xm:sqref>
+          <xm:sqref>C48 C74</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{E7D22ADC-9DDD-46A4-BDBD-6BF94146526E}">
           <x14:formula1>
-            <xm:f>RDL_types!$B$43:$B$46</xm:f>
+            <xm:f>RDL_types!$B$44:$B$47</xm:f>
           </x14:formula1>
-          <xm:sqref>C46 C68</xm:sqref>
+          <xm:sqref>C48 C74</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{3FA3E982-35F0-415A-BD43-38A89288A1C2}">
           <x14:formula1>
-            <xm:f>RDL_types!$B$60:$B$61</xm:f>
+            <xm:f>RDL_types!$B$61:$B$62</xm:f>
           </x14:formula1>
-          <xm:sqref>C48</xm:sqref>
+          <xm:sqref>C50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{4BF2ABFA-5F52-4094-8E15-5EADD2B827FC}">
           <x14:formula1>
-            <xm:f>RDL_types!$B$62:$B$63</xm:f>
+            <xm:f>RDL_types!$B$63:$B$64</xm:f>
           </x14:formula1>
-          <xm:sqref>C49</xm:sqref>
+          <xm:sqref>C51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{D3940FF9-EB32-450A-803F-36E48ACB214E}">
           <x14:formula1>
-            <xm:f>RDL_types!$B$64:$B$65</xm:f>
+            <xm:f>RDL_types!$B$65:$B$66</xm:f>
           </x14:formula1>
-          <xm:sqref>C66</xm:sqref>
+          <xm:sqref>C72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{459946FC-836A-4A16-8B57-67AC6795F9FE}">
           <x14:formula1>
-            <xm:f>RDL_types!$B$66:$B$68</xm:f>
+            <xm:f>RDL_types!$B$67:$B$69</xm:f>
           </x14:formula1>
-          <xm:sqref>C67</xm:sqref>
+          <xm:sqref>C73</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{767DB4F4-1E57-41C1-BEEB-D5563AC13DF8}">
+          <x14:formula1>
+            <xm:f>RDL_types!$F$20:$F$46</xm:f>
+          </x14:formula1>
+          <xm:sqref>C20:C21 C37 C62</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{C2F2BA77-78E2-4385-834A-D282CD4C7A7E}">
+          <x14:formula1>
+            <xm:f>RDL_types!$F$47:$F$86</xm:f>
+          </x14:formula1>
+          <xm:sqref>C26 C39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select" prompt="from the list" xr:uid="{890A3A10-03C5-4702-8AC1-73B9A7FCA308}">
+          <x14:formula1>
+            <xm:f>RDL_types!$B$37:$B$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>C24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3463,18 +3696,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D709C7B1-EBE3-4823-A429-90B155C2209E}">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="6.21875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="9" customWidth="1"/>
@@ -3486,21 +3719,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="D1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="H1" s="8"/>
       <c r="N1" s="10"/>
@@ -3510,20 +3743,20 @@
       <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -3533,13 +3766,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -3548,15 +3781,15 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -3565,15 +3798,15 @@
       <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -3582,17 +3815,17 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>299</v>
+      <c r="A6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -3601,15 +3834,15 @@
       <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="39" t="s">
-        <v>59</v>
+      <c r="A7" s="38"/>
+      <c r="B7" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -3618,1125 +3851,1133 @@
       <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
+      <c r="B9" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="39" t="s">
+      <c r="F9" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>69</v>
-      </c>
       <c r="E11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
+      <c r="B15" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
+      <c r="B26" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="9" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E28" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="E29" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="E30" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="32" t="s">
         <v>125</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="39" t="s">
-        <v>126</v>
       </c>
       <c r="C31" s="10"/>
       <c r="E31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="G31" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>129</v>
+      <c r="A32" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="C32" s="10"/>
       <c r="E32" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="G32" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="39"/>
+      <c r="B33" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="39"/>
+      <c r="B34" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="E34" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
-      <c r="B34" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="E35" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="38"/>
+      <c r="B36" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="E36" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
-      <c r="B36" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="E37" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="39"/>
+      <c r="B38" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="E38" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="39"/>
+      <c r="B39" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="46"/>
-      <c r="B38" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="9" t="s">
+      <c r="E39" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="39"/>
+      <c r="B40" s="59" t="s">
+        <v>619</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
-      <c r="B39" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="C41" s="10"/>
+      <c r="E41" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
+      <c r="B42" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="E40" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="9" t="s">
+      <c r="C42" s="8"/>
+      <c r="E42" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
-      <c r="B41" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="E41" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
-      <c r="B42" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="B43" s="38" t="s">
+      <c r="E43" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="12" t="s">
-        <v>195</v>
+      <c r="B44" s="31" t="s">
+        <v>324</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
+      <c r="B49" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="38"/>
+      <c r="B50" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="38"/>
+      <c r="B51" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="38"/>
+      <c r="B52" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="38"/>
+      <c r="B53" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="38"/>
+      <c r="B54" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="38"/>
+      <c r="B55" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="41" t="s">
+      <c r="F55" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="45"/>
-      <c r="B48" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="45"/>
-      <c r="B49" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F49" s="9" t="s">
+      <c r="F56" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
-      <c r="B50" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
-      <c r="B51" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="45"/>
-      <c r="B52" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="45"/>
-      <c r="B53" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="45"/>
-      <c r="B54" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="E58" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="G58" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="E59" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="G59" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" s="9" t="s">
+      <c r="E64" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G61" s="9" t="s">
+      <c r="E65" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="36"/>
+      <c r="B66" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F62" s="9" t="s">
+      <c r="E66" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="43"/>
-      <c r="B65" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F66" s="9" t="s">
+      <c r="E67" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E67" s="9" t="s">
+      <c r="F67" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>235</v>
-      </c>
       <c r="G67" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B68" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E68" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="G68" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="G68" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E69" s="9" t="s">
+      <c r="F69" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>239</v>
-      </c>
       <c r="G69" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E70" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F70" s="9" t="s">
-        <v>241</v>
-      </c>
       <c r="G70" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E71" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="F71" s="9" t="s">
-        <v>243</v>
-      </c>
       <c r="G71" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E72" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F72" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="G72" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E73" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G72" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="12"/>
-      <c r="E73" s="9" t="s">
+      <c r="F73" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="G73" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B74" s="12"/>
       <c r="E74" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F74" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="G74" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="12"/>
+      <c r="E75" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G74" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E75" s="9" t="s">
+      <c r="F75" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>251</v>
-      </c>
       <c r="G75" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E76" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="F76" s="9" t="s">
-        <v>253</v>
-      </c>
       <c r="G76" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E77" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F77" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>255</v>
-      </c>
       <c r="G77" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E78" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F78" s="9" t="s">
-        <v>257</v>
-      </c>
       <c r="G78" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E79" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="F79" s="9" t="s">
-        <v>259</v>
-      </c>
       <c r="G79" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E80" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="G80" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E81" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="G80" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E81" s="9" t="s">
+      <c r="F81" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="G81" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E82" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G81" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E82" s="9" t="s">
+      <c r="F82" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="G82" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E83" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="G82" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E83" s="9" t="s">
+      <c r="F83" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="G83" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E84" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E84" s="9" t="s">
+      <c r="F84" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="G84" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E85" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G84" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E85" s="9" t="s">
+      <c r="F85" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="G85" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E86" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="G85" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E86" s="9" t="s">
+      <c r="F86" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F86" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="G86" s="9" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D87" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4756,386 +4997,386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="64" t="s">
-        <v>608</v>
+      <c r="A1" s="57" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>368</v>
+        <v>356</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>605</v>
+        <v>358</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>375</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>369</v>
+        <v>359</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>376</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>370</v>
+        <v>360</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>377</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>371</v>
+        <v>361</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>372</v>
+        <v>376</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" t="s">
         <v>365</v>
       </c>
-      <c r="B8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C8" t="s">
-        <v>367</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="51" t="s">
         <v>373</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
-        <v>607</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>393</v>
+      <c r="A11" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="56" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="56" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="63" t="s">
-        <v>384</v>
-      </c>
-    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="61" t="s">
-        <v>409</v>
+      <c r="B14" s="54" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="63" t="s">
-        <v>389</v>
+      <c r="B17" s="56" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="61" t="s">
-        <v>391</v>
+      <c r="B19" s="54" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
-        <v>436</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>437</v>
+      <c r="A20" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="57" t="s">
-        <v>598</v>
+      <c r="B21" s="50" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
-        <v>601</v>
-      </c>
-      <c r="B27" s="60" t="s">
+      <c r="A27" s="50" t="s">
         <v>599</v>
       </c>
+      <c r="B27" s="53" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="57" t="s">
-        <v>600</v>
+      <c r="B28" s="50" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
-        <v>602</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>603</v>
+      <c r="A30" s="50" t="s">
+        <v>600</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
-        <v>503</v>
+      <c r="A31" s="50" t="s">
+        <v>501</v>
       </c>
       <c r="B31" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="57" t="s">
-        <v>500</v>
+      <c r="B34" s="50" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="57" t="s">
-        <v>604</v>
+      <c r="B35" s="50" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="57" t="s">
-        <v>503</v>
-      </c>
-      <c r="B38" s="57" t="s">
-        <v>490</v>
+      <c r="A38" s="50" t="s">
+        <v>501</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B41" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="57" t="s">
-        <v>524</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>505</v>
+      <c r="A45" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="50" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="50" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="50" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="57" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="57" t="s">
-        <v>515</v>
-      </c>
-    </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="57" t="s">
-        <v>529</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>525</v>
+      <c r="A49" s="50" t="s">
+        <v>527</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="57" t="s">
-        <v>530</v>
+      <c r="B50" s="50" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="57" t="s">
-        <v>558</v>
+      <c r="B55" s="50" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="57" t="s">
-        <v>606</v>
-      </c>
-      <c r="B56" s="62" t="s">
-        <v>563</v>
+      <c r="A56" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="B56" s="55" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="57" t="s">
-        <v>577</v>
+      <c r="B58" s="50" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="57" t="s">
-        <v>576</v>
+      <c r="B59" s="50" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>578</v>
-      </c>
-      <c r="B61" s="57" t="s">
-        <v>597</v>
+        <v>576</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="57" t="s">
-        <v>596</v>
+      <c r="B62" s="50" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -5159,1036 +5400,1036 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>375</v>
-      </c>
-      <c r="C1" s="59" t="s">
+      <c r="A1" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="C3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="68"/>
+      <c r="C4" s="50" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="68"/>
+      <c r="C6" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="C2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="68"/>
+      <c r="C7" s="50" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="68"/>
+      <c r="C8" s="50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="68"/>
+      <c r="C9" s="50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="68"/>
+      <c r="C10" s="50" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="68"/>
+      <c r="C11" s="50" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="66"/>
-      <c r="C4" s="57" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="66" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="69"/>
+      <c r="C13" t="s">
         <v>384</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="66"/>
-      <c r="C6" s="57" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="66"/>
-      <c r="C7" s="57" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="66"/>
-      <c r="C8" s="57" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="66"/>
-      <c r="C9" s="57" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="69"/>
+      <c r="C14" s="50" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="66"/>
-      <c r="C10" s="57" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="66"/>
-      <c r="C11" s="57" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="69"/>
+      <c r="C15" s="50" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="69"/>
+      <c r="C16" s="50" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
-      <c r="C13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
-      <c r="C14" s="57" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="69"/>
+      <c r="C17" s="50" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
-      <c r="C15" s="57" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
-      <c r="C16" s="57" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="57" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="69"/>
+      <c r="C18" s="50" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="57" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="C21" s="50" t="s">
         <v>406</v>
       </c>
-      <c r="C20" s="57" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="C21" s="57" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="68"/>
+      <c r="C22" s="50" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="66"/>
-      <c r="C22" s="57" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="69"/>
+      <c r="C25" t="s">
         <v>390</v>
       </c>
-      <c r="C23" s="57" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C27" s="50" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
-        <v>436</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>437</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C27" s="57" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>416</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="B33" s="50" t="s">
         <v>418</v>
       </c>
-      <c r="C32" s="57" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="57" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="50" t="s">
         <v>419</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="57" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="B36" s="50" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
-        <v>423</v>
-      </c>
-      <c r="B36" s="57" t="s">
-        <v>424</v>
-      </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="50" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="50" t="s">
+        <v>501</v>
+      </c>
+      <c r="B37" t="s">
+        <v>500</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="50" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="57" t="s">
-        <v>503</v>
-      </c>
-      <c r="B37" t="s">
-        <v>502</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="57" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>425</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>472</v>
+        <v>423</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>426</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>501</v>
+        <v>424</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="57" t="s">
-        <v>500</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>499</v>
+      <c r="B44" s="50" t="s">
+        <v>498</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="57" t="s">
-        <v>498</v>
+      <c r="C46" s="50" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="57" t="s">
-        <v>497</v>
+      <c r="C47" s="50" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="57" t="s">
-        <v>431</v>
-      </c>
-      <c r="C48" s="57" t="s">
-        <v>496</v>
+      <c r="B48" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="57" t="s">
-        <v>495</v>
+      <c r="C51" s="50" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>434</v>
-      </c>
-      <c r="C52" s="57" t="s">
-        <v>494</v>
+        <v>432</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>435</v>
-      </c>
-      <c r="C53" s="57" t="s">
-        <v>493</v>
+        <v>433</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="57" t="s">
-        <v>492</v>
+      <c r="C54" s="50" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="57" t="s">
-        <v>491</v>
+      <c r="C55" s="50" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="57" t="s">
-        <v>439</v>
-      </c>
-      <c r="B56" s="57" t="s">
-        <v>490</v>
+      <c r="A56" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>488</v>
       </c>
       <c r="C56" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="57" t="s">
-        <v>489</v>
+      <c r="C57" s="50" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C59" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C62" s="57" t="s">
-        <v>447</v>
+      <c r="C62" s="50" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>441</v>
-      </c>
-      <c r="C66" s="57" t="s">
-        <v>488</v>
+        <v>439</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="57" t="s">
-        <v>487</v>
+      <c r="C67" s="50" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C68" s="57" t="s">
-        <v>486</v>
+      <c r="C68" s="50" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C72" s="57" t="s">
-        <v>485</v>
+      <c r="C72" s="50" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="57" t="s">
+      <c r="C73" s="50" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="50" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="50" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="57" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="57" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>452</v>
+      </c>
+      <c r="B76" t="s">
+        <v>453</v>
+      </c>
+      <c r="C76" t="s">
         <v>454</v>
-      </c>
-      <c r="B76" t="s">
-        <v>455</v>
-      </c>
-      <c r="C76" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="57" t="s">
-        <v>484</v>
+      <c r="C78" s="50" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C81" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="57" t="s">
-        <v>480</v>
+      <c r="C83" s="50" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="57" t="s">
-        <v>479</v>
+      <c r="C85" s="50" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C86" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="57" t="s">
-        <v>478</v>
+      <c r="C88" s="50" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="57" t="s">
-        <v>477</v>
+      <c r="C89" s="50" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="57" t="s">
-        <v>476</v>
+      <c r="C91" s="50" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>462</v>
-      </c>
-      <c r="C92" s="57" t="s">
-        <v>475</v>
+        <v>460</v>
+      </c>
+      <c r="C92" s="50" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="57" t="s">
-        <v>474</v>
+      <c r="C93" s="50" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="57" t="s">
-        <v>473</v>
+      <c r="C94" s="50" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="57" t="s">
-        <v>524</v>
-      </c>
-      <c r="B95" s="62" t="s">
-        <v>505</v>
-      </c>
-      <c r="C95" s="62" t="s">
-        <v>506</v>
+      <c r="A95" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="B95" s="55" t="s">
+        <v>503</v>
+      </c>
+      <c r="C95" s="55" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="57" t="s">
-        <v>512</v>
+      <c r="C96" s="50" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="57" t="s">
+      <c r="C99" s="50" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="C100" s="50" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="50" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="57" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="50" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="50" t="s">
+        <v>512</v>
+      </c>
+      <c r="C103" s="50" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="50" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="C100" s="57" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="57" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="57" t="s">
+      <c r="C105" s="50" t="s">
         <v>520</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B103" s="57" t="s">
-        <v>514</v>
-      </c>
-      <c r="C103" s="57" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C104" s="57" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B105" s="57" t="s">
-        <v>515</v>
-      </c>
-      <c r="C105" s="57" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C109" s="57" t="s">
+      <c r="C109" s="50" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="50" t="s">
+        <v>527</v>
+      </c>
+      <c r="B110" s="55" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="57" t="s">
-        <v>529</v>
-      </c>
-      <c r="B110" s="62" t="s">
-        <v>525</v>
-      </c>
-      <c r="C110" s="57" t="s">
-        <v>533</v>
+      <c r="C110" s="50" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="50" t="s">
+        <v>528</v>
+      </c>
+      <c r="C113" s="50" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="57" t="s">
-        <v>530</v>
-      </c>
-      <c r="C113" s="57" t="s">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="50" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="50" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C114" s="57" t="s">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="50" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="50" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="50" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="50" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C115" s="57" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C120" s="50" t="s">
         <v>536</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C116" s="57" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C117" s="57" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="57" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="57" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C120" s="57" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>526</v>
-      </c>
-      <c r="C121" s="57" t="s">
-        <v>539</v>
+        <v>524</v>
+      </c>
+      <c r="C121" s="50" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C122" s="57" t="s">
-        <v>539</v>
+      <c r="C122" s="50" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C123" s="57" t="s">
-        <v>540</v>
+      <c r="C123" s="50" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>527</v>
-      </c>
-      <c r="C124" s="57" t="s">
+        <v>525</v>
+      </c>
+      <c r="C124" s="50" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="50" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="50" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C125" s="57" t="s">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="50" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C126" s="57" t="s">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="50" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C127" s="57" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="50" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C128" s="57" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="50" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="57" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="50" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C130" s="57" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C131" s="57" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>528</v>
-      </c>
-      <c r="C132" s="57" t="s">
-        <v>549</v>
+        <v>526</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C133" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C135" s="57" t="s">
-        <v>561</v>
+      <c r="C135" s="50" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C136" s="57" t="s">
-        <v>557</v>
+      <c r="C136" s="50" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C137" s="57" t="s">
+      <c r="C137" s="50" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B138" s="50" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B138" s="57" t="s">
-        <v>558</v>
-      </c>
-      <c r="C138" s="57" t="s">
-        <v>555</v>
+      <c r="C138" s="50" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C140" s="57" t="s">
-        <v>559</v>
+      <c r="C140" s="50" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C142" s="57" t="s">
+      <c r="C142" s="50" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="50" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="57" t="s">
-        <v>562</v>
-      </c>
       <c r="B143" t="s">
-        <v>563</v>
-      </c>
-      <c r="C143" s="57" t="s">
+        <v>561</v>
+      </c>
+      <c r="C143" s="50" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="50" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C145" s="50" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C144" s="57" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="50" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C145" s="57" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C147" s="53" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C146" s="57" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="50" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C147" s="60" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C148" s="57" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C149" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C150" s="57" t="s">
+      <c r="C150" s="50" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B151" s="50" t="s">
+        <v>575</v>
+      </c>
+      <c r="C151" s="50" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B152" s="50" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B151" s="57" t="s">
-        <v>577</v>
-      </c>
-      <c r="C151" s="57" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B152" s="57" t="s">
-        <v>576</v>
-      </c>
-      <c r="C152" s="57" t="s">
-        <v>520</v>
+      <c r="C152" s="50" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C153" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>578</v>
-      </c>
-      <c r="B154" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="C154" s="60" t="s">
-        <v>587</v>
+        <v>576</v>
+      </c>
+      <c r="B154" s="50" t="s">
+        <v>595</v>
+      </c>
+      <c r="C154" s="53" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C158" s="57" t="s">
+      <c r="C158" s="50" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C159" s="50" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="50" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C159" s="57" t="s">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="50" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C160" s="57" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C161" s="57" t="s">
-        <v>591</v>
-      </c>
-    </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B162" s="57" t="s">
-        <v>596</v>
-      </c>
-      <c r="C162" s="62" t="s">
-        <v>582</v>
+      <c r="B162" s="50" t="s">
+        <v>594</v>
+      </c>
+      <c r="C162" s="55" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C165" s="57" t="s">
-        <v>592</v>
+      <c r="C165" s="50" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C167" s="57" t="s">
-        <v>593</v>
+      <c r="C167" s="50" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C169" s="57" t="s">
-        <v>594</v>
+      <c r="C169" s="50" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C170" s="57" t="s">
-        <v>595</v>
+      <c r="C170" s="50" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
